--- a/public/Drivers.xlsx
+++ b/public/Drivers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lakbay_laravel\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6CF879-6613-472E-A8C4-FEE0504745AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBC51FD-668F-43C9-9AB4-7DC3E3A05CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4E4F2E6C-6624-47A3-9265-32EE952AF4A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>${dr_emp_id}</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>${driver_id}</t>
+  </si>
+  <si>
+    <t>DRIVER ID</t>
+  </si>
+  <si>
+    <t>DRIVER EMP ID</t>
+  </si>
+  <si>
+    <t>DRIVER NAME</t>
+  </si>
+  <si>
+    <t>DRIVER'S OFFICE</t>
   </si>
 </sst>
 </file>
@@ -399,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207A2A96-EC3E-4F32-AF7E-8C5BCA61E232}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -415,15 +427,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
